--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/97.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/97.xlsx
@@ -479,13 +479,13 @@
         <v>-13.9025340399043</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69438482858882</v>
+        <v>-10.69342909048138</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.969641304661803</v>
+        <v>-4.074379727395612</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.85079892952625</v>
+        <v>-6.719548593537946</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.82094270599399</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05325794178338</v>
+        <v>-11.05027289673546</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.002712461640002</v>
+        <v>-4.128634230371724</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.847970992112438</v>
+        <v>-6.736555494929348</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.70059964708089</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88575820258021</v>
+        <v>-11.88612478705978</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.762128304620445</v>
+        <v>-3.871828710131267</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.682026053593559</v>
+        <v>-6.569628633697341</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.69663246468016</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.74406339227809</v>
+        <v>-12.73132458161309</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.838953937695693</v>
+        <v>-3.977640701698097</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.032101139278472</v>
+        <v>-6.904438094268802</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.782963528256234</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.46666686302147</v>
+        <v>-13.43802090440378</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.595633489382214</v>
+        <v>-3.729842685812748</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.585234658684678</v>
+        <v>-6.475809191533532</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.968519961478838</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.15835940675555</v>
+        <v>-14.12789361804285</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.642608671978327</v>
+        <v>-3.792908308601343</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.756337964523197</v>
+        <v>-6.648928712009676</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.21985654801202</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.78201125262117</v>
+        <v>-14.73597871582966</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.473050257875133</v>
+        <v>-3.607364192728401</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.427092732659469</v>
+        <v>-6.354954144001558</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.508066508093461</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.69620748315037</v>
+        <v>-15.64743865506495</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.313991870651003</v>
+        <v>-3.454315172508623</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.191902604410703</v>
+        <v>-6.16427784541466</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.799222996583369</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.34892424132463</v>
+        <v>-16.29883309065218</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.299996198913198</v>
+        <v>-3.448816405315098</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.7616633484259</v>
+        <v>-5.725148915800326</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.072307158769938</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.89936392969932</v>
+        <v>-16.81833566741187</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.158114913017413</v>
+        <v>-3.296094692666363</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.531893433553607</v>
+        <v>-5.490220633608393</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.308690951768586</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.51800142357656</v>
+        <v>-17.44785286495059</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.291158894495033</v>
+        <v>-3.404865544675424</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.937424330722194</v>
+        <v>-4.89249154736939</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.498368406165675</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.40872315511055</v>
+        <v>-18.34658708582372</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.068092238677704</v>
+        <v>-3.184613733969066</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.288150848195315</v>
+        <v>-4.249345262572438</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.647486353799974</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.12690142749343</v>
+        <v>-19.08825294950466</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.950012759348177</v>
+        <v>-3.068498100065798</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.744833372566525</v>
+        <v>-3.67145101513865</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.76732067590305</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.90218832487193</v>
+        <v>-19.83734214889686</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.873933387534906</v>
+        <v>-2.997956772354577</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.147654163046874</v>
+        <v>-3.07526682063497</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.876650176677354</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.77314067911491</v>
+        <v>-20.68320965089509</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.85704431686908</v>
+        <v>-3.000117002323462</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.561315380280171</v>
+        <v>-2.450227190668126</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.000662777244854</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.49113565925801</v>
+        <v>-21.39350635696726</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.777835884676637</v>
+        <v>-2.920843108616811</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.139455198114074</v>
+        <v>-2.030514146168072</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.1797519562054915</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.40331567514959</v>
+        <v>-22.29599806875596</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.679067552038656</v>
+        <v>-2.829707588535556</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.90193463995948</v>
+        <v>-1.815342148964304</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5407144260715364</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.24837145437164</v>
+        <v>-23.13720471094254</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.698601267878511</v>
+        <v>-2.836135909230843</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.44789357740842</v>
+        <v>-1.327038529876446</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.114788304378277</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.04443583635995</v>
+        <v>-23.94132085917852</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.478598210926146</v>
+        <v>-2.610725731204846</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.200907284299257</v>
+        <v>-1.101916382512967</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.503848161194082</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.50089897493673</v>
+        <v>-24.38572598683807</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.320835961683347</v>
+        <v>-2.447634914705464</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.8102722444106767</v>
+        <v>-0.7110194965675514</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.682082204570211</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.1628458066144</v>
+        <v>-25.04881184886297</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.119803651548643</v>
+        <v>-2.22846976513497</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.638776169486907</v>
+        <v>-0.58691755793083</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.646936212466863</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.7303578578947</v>
+        <v>-25.62017303717873</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.115601022336449</v>
+        <v>-2.222133090559574</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2789473181849077</v>
+        <v>-0.197107333121278</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.418800730552815</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.16819064952771</v>
+        <v>-26.05906630534192</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.06873057816307</v>
+        <v>-2.159316221524973</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.3139430436808415</v>
+        <v>-0.2464391302289019</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.033898408531213</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.4451845007501</v>
+        <v>-26.33448908022331</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.724573213362617</v>
+        <v>-1.808887643663333</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2908744060737201</v>
+        <v>-0.2318281202575356</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.5388483607509565</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.36652594527701</v>
+        <v>-26.24848574285601</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.631264371009635</v>
+        <v>-1.700692852979308</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4488854090705121</v>
+        <v>-0.3916458610464857</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.01508314727368288</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.30559436785162</v>
+        <v>-26.15276791678015</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.708181650204776</v>
+        <v>-1.772333934129233</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3939631986494712</v>
+        <v>-0.3628689794003718</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.5790101050574507</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.45874812649413</v>
+        <v>-26.3312552814214</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.425021324343924</v>
+        <v>-1.489880592621835</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7260232756241695</v>
+        <v>-0.7002707159344943</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.11626579540316</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.39074670553421</v>
+        <v>-26.23375690215907</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.343194431583136</v>
+        <v>-1.392945182381695</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7943258195494544</v>
+        <v>-0.7775938565177285</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.601272440191688</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.19563211628396</v>
+        <v>-26.05324023057735</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.423358601883025</v>
+        <v>-1.472454737539498</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9320044762330457</v>
+        <v>-0.922434002855744</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.021284405219092</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.854328873503</v>
+        <v>-25.71869261606272</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.337813495115187</v>
+        <v>-1.383636555061228</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.410829268063493</v>
+        <v>-1.409624776202054</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.376760803099538</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.88082769445466</v>
+        <v>-25.72788341265762</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.174081155776561</v>
+        <v>-1.212061926320408</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.712528294748229</v>
+        <v>-1.694657301369273</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.681771128646395</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.52586917980978</v>
+        <v>-25.38053152596378</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.149087949651706</v>
+        <v>-1.179095507764942</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.217904276741697</v>
+        <v>-2.192387378503172</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.954721888346788</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.96299180373545</v>
+        <v>-24.84420534005247</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.173413448331633</v>
+        <v>-1.196063132247819</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.316083455751801</v>
+        <v>-2.301799753351477</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.215524303967592</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.55552006239241</v>
+        <v>-24.42290812690857</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.341518616819395</v>
+        <v>-1.362361562943423</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.517652550303015</v>
+        <v>-2.521462410429957</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.482071141914506</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.899176736331</v>
+        <v>-23.77866208867291</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.341322232276769</v>
+        <v>-1.362138993795114</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.693403623650346</v>
+        <v>-2.724393104476711</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.767765108111693</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.13492665024808</v>
+        <v>-23.02302673785985</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.325650745775223</v>
+        <v>-1.339004894673784</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.841163353522066</v>
+        <v>-2.844122213964296</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.077381017296864</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.74391193357709</v>
+        <v>-22.64693724642843</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.399753179859393</v>
+        <v>-1.417218311850255</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.158808805068024</v>
+        <v>-3.149120500965147</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.408232854927857</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.12600760865899</v>
+        <v>-21.99262322730748</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.302987969556196</v>
+        <v>-1.33526049606105</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.38982248871028</v>
+        <v>-3.376075570726468</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.752550605773676</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.63745523581714</v>
+        <v>-21.50502659257308</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.469273307948958</v>
+        <v>-1.504910556284137</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.621006372289479</v>
+        <v>-3.607154715882933</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.10214308819255</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.14363975723291</v>
+        <v>-21.08054794983864</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.372455728434394</v>
+        <v>-1.425440278034859</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.622865479293004</v>
+        <v>-3.612627298470775</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.446898280494009</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.34639706798885</v>
+        <v>-20.23102769534756</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.095252400366528</v>
+        <v>-1.154141578548612</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.740080866634978</v>
+        <v>-3.717810859501202</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.776945739128124</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.50301710353054</v>
+        <v>-19.42904559247479</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.103317258917031</v>
+        <v>-1.161001945237676</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.876607400668497</v>
+        <v>-3.859417207037311</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.086439648848675</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.07984769108027</v>
+        <v>-19.001699735418</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.119826652800448</v>
+        <v>-1.185026320952244</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.107123576802769</v>
+        <v>-4.082012539952338</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.374850041694772</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.57938132265245</v>
+        <v>-18.52422345078026</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.11104171759365</v>
+        <v>-1.172968310035014</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.214742306161757</v>
+        <v>-4.199306481111361</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.643109029486841</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.11008772729078</v>
+        <v>-18.08189999927254</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.075378284652788</v>
+        <v>-1.136192031352605</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.337927783599557</v>
+        <v>-4.347328057039917</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.894082846229577</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.35820986739329</v>
+        <v>-17.31115613098013</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.162206437099115</v>
+        <v>-1.233323826135371</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.65469605085512</v>
+        <v>-4.64507320826645</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.134511490501017</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.5184433785193</v>
+        <v>-16.4611514612839</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.090657002069082</v>
+        <v>-1.156982608265267</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.594576196205914</v>
+        <v>-4.605076223084978</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.372148163548011</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.8646137746035</v>
+        <v>-15.84832694986839</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.023153088617142</v>
+        <v>-1.115100331474585</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.833117953982162</v>
+        <v>-4.827475171457379</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.610980427976342</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.9970785114022</v>
+        <v>-14.95189697429541</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9885894091149857</v>
+        <v>-1.067169410771026</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.9515771100941</v>
+        <v>-4.953868263091402</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.852171177456455</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.19700788474432</v>
+        <v>-14.16343922025814</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.991063854352072</v>
+        <v>-1.066802826291457</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.138679210005207</v>
+        <v>-5.133808873348085</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.096955458356785</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.50447743362838</v>
+        <v>-13.428489707935</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9340337831735133</v>
+        <v>-1.015415537637683</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.043851660522585</v>
+        <v>-5.029057358311435</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.34612455980449</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.80063523285719</v>
+        <v>-12.73428344205532</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9237170485342331</v>
+        <v>-1.015899952842826</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.123282661863337</v>
+        <v>-5.110988989494956</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.598840873140709</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.43035872388749</v>
+        <v>-12.37376069870271</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.121777405923865</v>
+        <v>-1.212205941651667</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.294621629153006</v>
+        <v>-5.27932981943387</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.850411312344139</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.74216182501216</v>
+        <v>-11.70533317711838</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.208867404427027</v>
+        <v>-1.303210538704505</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.770618483569641</v>
+        <v>-5.761872825271368</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.102153056747902</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.31992196606365</v>
+        <v>-11.28126039577204</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.219393615911775</v>
+        <v>-1.320047240158965</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.903688649652945</v>
+        <v>-5.895715437222333</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.35644020750075</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.54274977707595</v>
+        <v>-10.50980954312617</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.207741466382638</v>
+        <v>-1.309285367223066</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.363411771637313</v>
+        <v>-6.348813853968789</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.614103954090854</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.08709836127536</v>
+        <v>-10.02498847659421</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.403628501500544</v>
+        <v>-1.515489136980251</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.215337826497392</v>
+        <v>-6.186181268068868</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.871314212569555</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.507567575986354</v>
+        <v>-9.467505129290672</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.395000673927846</v>
+        <v>-1.502920526252194</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.442842772978066</v>
+        <v>-6.40843620111001</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.12974187050769</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.223660988863525</v>
+        <v>-9.174407745572951</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.477573827950613</v>
+        <v>-1.578332190620537</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.33091667598415</v>
+        <v>-6.284897231495482</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.38736533425912</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.606385094481825</v>
+        <v>-8.528407338756503</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.551911923485933</v>
+        <v>-1.669140403130749</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.725008083822946</v>
+        <v>-6.710148320097587</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.639247780148</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.035442859856992</v>
+        <v>-7.952987536559801</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.475060105805001</v>
+        <v>-1.57911772879104</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.597017731242232</v>
+        <v>-6.57099023319288</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.87729786829969</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.569579447839853</v>
+        <v>-7.494023768140252</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.455055067062844</v>
+        <v>-1.578397652134745</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.667676889679027</v>
+        <v>-6.632039641343849</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.10126812001184</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.166192504983431</v>
+        <v>-7.063522666098615</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.599803567280967</v>
+        <v>-1.717581923645135</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.840089425801718</v>
+        <v>-6.811692220938014</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.30934583952913</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.735089157011075</v>
+        <v>-6.635666209231007</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.487484701201799</v>
+        <v>-1.599057306018989</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.002983857758474</v>
+        <v>-7.004607303310848</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.49797483337142</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.489006232797992</v>
+        <v>-6.400659373222024</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.649449579656793</v>
+        <v>-1.754201094693443</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.040375474674444</v>
+        <v>-7.030281309183473</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.66091195969617</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.361591941542314</v>
+        <v>-6.258306764423937</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.640690829055678</v>
+        <v>-1.744643713618983</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.10079645228901</v>
+        <v>-7.079233429508687</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.79744663301913</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.08789735063603</v>
+        <v>-5.982399574337402</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.583909511631112</v>
+        <v>-1.661468313665497</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.050155424897213</v>
+        <v>-7.045062519091782</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.90315951472558</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.996604722920675</v>
+        <v>-5.88257076516924</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.859214455786928</v>
+        <v>-1.949001468675485</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.080136798404766</v>
+        <v>-7.084915488941996</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-11.97041735807207</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.902209219431829</v>
+        <v>-5.7725823289959</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.811060965935059</v>
+        <v>-1.89313661244984</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.823501478101251</v>
+        <v>-6.821013940561324</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-11.98958236953343</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.644631253323711</v>
+        <v>-5.505656458658788</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.827387067578691</v>
+        <v>-1.904461454407933</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.723790499658666</v>
+        <v>-6.733099126979133</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-11.95903740212121</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.743635247412843</v>
+        <v>-5.584288829526195</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.90906994500822</v>
+        <v>-1.985319516758433</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.534554354384357</v>
+        <v>-6.556313761707306</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-11.87826766576559</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.81551199001392</v>
+        <v>-5.655720433830653</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.996605081808001</v>
+        <v>-2.072200038416127</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.370232861417853</v>
+        <v>-6.387776547225766</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-11.7486620868745</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.013742547340494</v>
+        <v>-5.86201584970773</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.857708840960129</v>
+        <v>-1.933028859208579</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.256028703729476</v>
+        <v>-6.300738917933971</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.57265249622839</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.172028488696962</v>
+        <v>-6.00696073446848</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.12523695722796</v>
+        <v>-2.180303182980259</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.114343802376317</v>
+        <v>-6.154157495318006</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.36032177326134</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.651167495795611</v>
+        <v>-6.484358465289179</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.099955720440586</v>
+        <v>-2.172447801275224</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.872921737974888</v>
+        <v>-5.926809656471433</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.11895426561466</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.104619404718793</v>
+        <v>-6.96138961163031</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.154144761902491</v>
+        <v>-2.22126899857202</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.932190592939382</v>
+        <v>-5.97624619200179</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.85340385896609</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.590684240020716</v>
+        <v>-7.445176386237772</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.101107843090658</v>
+        <v>-2.177383599446554</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.559151608070081</v>
+        <v>-5.607488390161734</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.56507997403815</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.982536864073577</v>
+        <v>-7.848956098179445</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.144246980954146</v>
+        <v>-2.198305099387633</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.398011544694117</v>
+        <v>-5.446230496060194</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.26107671071695</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.365290337651437</v>
+        <v>-8.220463283616265</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.407493914192732</v>
+        <v>-2.46816364556129</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.005897074584421</v>
+        <v>-5.049507535350211</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.943547515336702</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.263998373918882</v>
+        <v>-9.135405775407449</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.330471896574857</v>
+        <v>-2.396444010594315</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.994676971049062</v>
+        <v>-5.052348565066866</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.612520355680413</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.9913805351995</v>
+        <v>-9.88132663751195</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.419630478927012</v>
+        <v>-2.487252223104527</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.825157833854393</v>
+        <v>-4.882083166610218</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.267227775957146</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.74154330342472</v>
+        <v>-10.64151810971393</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.498642526576829</v>
+        <v>-2.534292867214849</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.497575324451565</v>
+        <v>-4.558729471025267</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.914631532039722</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.88417403393636</v>
+        <v>-11.77744558117061</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.574433867727581</v>
+        <v>-2.623778757138047</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.390126795029519</v>
+        <v>-4.45590252450635</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.559025742335322</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.69584444091201</v>
+        <v>-12.59465403224831</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.717061414885345</v>
+        <v>-2.766445581204335</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.022010516028707</v>
+        <v>-4.096335519261186</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.204140217211568</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.73223113386305</v>
+        <v>-13.62141788261068</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.814402686513578</v>
+        <v>-2.861024376932964</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.713817707134476</v>
+        <v>-3.766278564621272</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.855099566377951</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.72841136478714</v>
+        <v>-14.62068789700542</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.850511257751059</v>
+        <v>-2.89239353454174</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.259148214047013</v>
+        <v>-3.324046759233449</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.524793148105724</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.08239114007277</v>
+        <v>-15.99901935557666</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.749072095333365</v>
+        <v>-2.809453796039405</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.009163783587095</v>
+        <v>-3.072595990855258</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.222416200723518</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.51251574868587</v>
+        <v>-17.41357721611095</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.995757265477168</v>
+        <v>-3.036801634885979</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.745943034954192</v>
+        <v>-2.796178200957895</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.953448633833259</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.98034618948315</v>
+        <v>-18.88618634744546</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.190439808733634</v>
+        <v>-3.238580206282661</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.625179633542111</v>
+        <v>-2.663526988565527</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.723751281312411</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.59863337453754</v>
+        <v>-20.52496298644715</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.393868010288374</v>
+        <v>-3.457156202225278</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.692788285416785</v>
+        <v>-2.713971631414697</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.537944176774702</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.07807668795543</v>
+        <v>-21.99753284087313</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.418612462659236</v>
+        <v>-3.451055189101033</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.576816666844775</v>
+        <v>-2.613540576315817</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.393895599723382</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.06993964229563</v>
+        <v>-23.98842696480305</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.613072436767393</v>
+        <v>-3.687620009148182</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.551051014852258</v>
+        <v>-2.580456327034775</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.281996458113193</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.23517087086597</v>
+        <v>-26.16269188233418</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.421270200136107</v>
+        <v>-3.488263513777219</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.703170481570274</v>
+        <v>-2.742827066877862</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.19164265006124</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.4119756951484</v>
+        <v>-28.33534644661578</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.917743416197201</v>
+        <v>-3.999675047380722</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.932730919597098</v>
+        <v>-2.950863759032889</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.106405478113734</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.46440364243443</v>
+        <v>-30.36818830885058</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.898733392471014</v>
+        <v>-3.98076976207727</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.266951226540681</v>
+        <v>-3.284599650771328</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.010073992886508</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.73672990825009</v>
+        <v>-32.6279197793325</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.060750640137375</v>
+        <v>-4.125976492894853</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.349118519175354</v>
+        <v>-3.368796250346469</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.87966337950143</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.2322537529115</v>
+        <v>-35.13776660330276</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.331839862778154</v>
+        <v>-4.413483463299158</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.779187575223214</v>
+        <v>-3.785223126833249</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.712487914217356</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.63061961818445</v>
+        <v>-37.54148722043798</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.195823928555463</v>
+        <v>-4.259321597337834</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.162661125457371</v>
+        <v>-4.187719793096434</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.4966776406579</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.2500621092428</v>
+        <v>-40.16708309383193</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.313536823405421</v>
+        <v>-4.38278201313531</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.412881217368439</v>
+        <v>-4.43852903863538</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.255986846024564</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.68761323692104</v>
+        <v>-42.6103817424577</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.468615150565666</v>
+        <v>-4.538030540232499</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.916869415260684</v>
+        <v>-4.955910662334711</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.972356820827917</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.05786992799281</v>
+        <v>-44.97176185220277</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.559462639984404</v>
+        <v>-4.624243354445264</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.132159243190028</v>
+        <v>-5.148288960291034</v>
       </c>
     </row>
   </sheetData>
